--- a/股票代码.xlsx
+++ b/股票代码.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30630\Desktop\txt_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3818E9-5365-4CB6-ABCF-05F81AD734D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -740,16 +747,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -759,22 +770,352 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -797,34 +1138,327 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1106,51 +1740,51 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.88495575221239" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
         <v>300884</v>
       </c>
       <c r="B2" t="s">
@@ -1175,8 +1809,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>300911</v>
       </c>
       <c r="B3" t="s">
@@ -1201,8 +1835,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>300925</v>
       </c>
       <c r="B4" t="s">
@@ -1227,8 +1861,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>300929</v>
       </c>
       <c r="B5" t="s">
@@ -1253,8 +1887,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>300939</v>
       </c>
       <c r="B6" t="s">
@@ -1279,8 +1913,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>300941</v>
       </c>
       <c r="B7" t="s">
@@ -1305,8 +1939,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>300947</v>
       </c>
       <c r="B8" t="s">
@@ -1331,8 +1965,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>300977</v>
       </c>
       <c r="B9" t="s">
@@ -1357,8 +1991,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>300987</v>
       </c>
       <c r="B10" t="s">
@@ -1383,8 +2017,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>300996</v>
       </c>
       <c r="B11" t="s">
@@ -1409,8 +2043,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>301001</v>
       </c>
       <c r="B12" t="s">
@@ -1435,8 +2069,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>301024</v>
       </c>
       <c r="B13" t="s">
@@ -1461,8 +2095,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
         <v>301027</v>
       </c>
       <c r="B14" t="s">
@@ -1487,8 +2121,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
         <v>301060</v>
       </c>
       <c r="B15" t="s">
@@ -1513,8 +2147,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
         <v>301066</v>
       </c>
       <c r="B16" t="s">
@@ -1539,8 +2173,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
         <v>301070</v>
       </c>
       <c r="B17" t="s">
@@ -1565,8 +2199,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
         <v>301078</v>
       </c>
       <c r="B18" t="s">
@@ -1591,8 +2225,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
         <v>301117</v>
       </c>
       <c r="B19" t="s">
@@ -1617,8 +2251,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
         <v>301129</v>
       </c>
       <c r="B20" t="s">
@@ -1643,8 +2277,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
         <v>301135</v>
       </c>
       <c r="B21" t="s">
@@ -1669,8 +2303,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
         <v>301136</v>
       </c>
       <c r="B22" t="s">
@@ -1695,8 +2329,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
         <v>301159</v>
       </c>
       <c r="B23" t="s">
@@ -1721,8 +2355,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
         <v>301169</v>
       </c>
       <c r="B24" t="s">
@@ -1747,8 +2381,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
         <v>301171</v>
       </c>
       <c r="B25" t="s">
@@ -1773,8 +2407,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
         <v>301172</v>
       </c>
       <c r="B26" t="s">
@@ -1799,8 +2433,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
         <v>600571</v>
       </c>
       <c r="B27" t="s">
@@ -1825,8 +2459,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
         <v>688165</v>
       </c>
       <c r="B28" t="s">
@@ -1851,8 +2485,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
         <v>688168</v>
       </c>
       <c r="B29" t="s">
@@ -1877,8 +2511,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
         <v>688175</v>
       </c>
       <c r="B30" t="s">
@@ -1903,8 +2537,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
         <v>688191</v>
       </c>
       <c r="B31" t="s">
@@ -1929,8 +2563,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
         <v>688207</v>
       </c>
       <c r="B32" t="s">
@@ -1955,8 +2589,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
         <v>688208</v>
       </c>
       <c r="B33" t="s">
@@ -1981,8 +2615,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
         <v>688220</v>
       </c>
       <c r="B34" t="s">
@@ -2007,8 +2641,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
         <v>688227</v>
       </c>
       <c r="B35" t="s">
@@ -2033,8 +2667,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
         <v>300645</v>
       </c>
       <c r="B36" t="s">
@@ -2059,8 +2693,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
         <v>300654</v>
       </c>
       <c r="B37" t="s">
@@ -2085,8 +2719,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
         <v>300661</v>
       </c>
       <c r="B38" t="s">
@@ -2111,8 +2745,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
         <v>300663</v>
       </c>
       <c r="B39" t="s">
@@ -2137,8 +2771,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
         <v>300672</v>
       </c>
       <c r="B40" t="s">
@@ -2163,8 +2797,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
         <v>300674</v>
       </c>
       <c r="B41" t="s">
@@ -2189,8 +2823,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
         <v>300678</v>
       </c>
       <c r="B42" t="s">
@@ -2215,8 +2849,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
         <v>300687</v>
       </c>
       <c r="B43" t="s">
@@ -2241,8 +2875,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
         <v>300688</v>
       </c>
       <c r="B44" t="s">
@@ -2267,8 +2901,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
         <v>300689</v>
       </c>
       <c r="B45" t="s">
@@ -2293,8 +2927,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
         <v>300691</v>
       </c>
       <c r="B46" t="s">
@@ -2319,8 +2953,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
         <v>300711</v>
       </c>
       <c r="B47" t="s">
@@ -2345,8 +2979,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
         <v>300722</v>
       </c>
       <c r="B48" t="s">
@@ -2371,8 +3005,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
         <v>300725</v>
       </c>
       <c r="B49" t="s">
@@ -2397,8 +3031,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
         <v>300729</v>
       </c>
       <c r="B50" t="s">
@@ -2423,8 +3057,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
         <v>300730</v>
       </c>
       <c r="B51" t="s">
@@ -2449,8 +3083,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
         <v>300732</v>
       </c>
       <c r="B52" t="s">
@@ -2475,8 +3109,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
         <v>300749</v>
       </c>
       <c r="B53" t="s">
@@ -2501,8 +3135,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
         <v>300753</v>
       </c>
       <c r="B54" t="s">
@@ -2527,8 +3161,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
         <v>300773</v>
       </c>
       <c r="B55" t="s">
@@ -2553,8 +3187,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
         <v>300781</v>
       </c>
       <c r="B56" t="s">
@@ -2579,8 +3213,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
         <v>300789</v>
       </c>
       <c r="B57" t="s">
@@ -2605,8 +3239,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
         <v>300793</v>
       </c>
       <c r="B58" t="s">
@@ -2631,8 +3265,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
         <v>300802</v>
       </c>
       <c r="B59" t="s">
@@ -2657,8 +3291,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
         <v>300807</v>
       </c>
       <c r="B60" t="s">
@@ -2683,8 +3317,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
         <v>300822</v>
       </c>
       <c r="B61" t="s">
@@ -2709,8 +3343,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
         <v>300825</v>
       </c>
       <c r="B62" t="s">
@@ -2735,8 +3369,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
         <v>300830</v>
       </c>
       <c r="B63" t="s">
@@ -2761,8 +3395,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
         <v>300844</v>
       </c>
       <c r="B64" t="s">
@@ -2787,8 +3421,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
         <v>300845</v>
       </c>
       <c r="B65" t="s">
@@ -2813,8 +3447,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
         <v>300853</v>
       </c>
       <c r="B66" t="s">
@@ -2839,8 +3473,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
         <v>300857</v>
       </c>
       <c r="B67" t="s">
@@ -2865,8 +3499,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
         <v>300866</v>
       </c>
       <c r="B68" t="s">
@@ -2891,8 +3525,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
         <v>300872</v>
       </c>
       <c r="B69" t="s">
@@ -2917,8 +3551,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
         <v>301083</v>
       </c>
       <c r="B70" t="s">
@@ -2943,8 +3577,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
         <v>301099</v>
       </c>
       <c r="B71" t="s">
@@ -2969,8 +3603,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
         <v>301102</v>
       </c>
       <c r="B72" t="s">
@@ -2995,8 +3629,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="73" spans="1:8">
+      <c r="A73" s="1">
         <v>301103</v>
       </c>
       <c r="B73" t="s">
@@ -3021,8 +3655,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
         <v>301110</v>
       </c>
       <c r="B74" t="s">
@@ -3047,8 +3681,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
         <v>301152</v>
       </c>
       <c r="B75" t="s">
@@ -3073,8 +3707,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="76" spans="1:8">
+      <c r="A76" s="1">
         <v>301213</v>
       </c>
       <c r="B76" t="s">
@@ -3099,8 +3733,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
         <v>301218</v>
       </c>
       <c r="B77" t="s">
@@ -3125,8 +3759,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
         <v>301221</v>
       </c>
       <c r="B78" t="s">
@@ -3151,8 +3785,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
         <v>301231</v>
       </c>
       <c r="B79" t="s">
@@ -3177,8 +3811,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="80" spans="1:8">
+      <c r="A80" s="1">
         <v>301235</v>
       </c>
       <c r="B80" t="s">
@@ -3203,8 +3837,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="81" spans="1:8">
+      <c r="A81" s="1">
         <v>301236</v>
       </c>
       <c r="B81" t="s">
@@ -3229,8 +3863,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="82" spans="1:8">
+      <c r="A82" s="1">
         <v>301248</v>
       </c>
       <c r="B82" t="s">
@@ -3255,8 +3889,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="83" spans="1:8">
+      <c r="A83" s="1">
         <v>301259</v>
       </c>
       <c r="B83" t="s">
@@ -3281,8 +3915,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="84" spans="1:8">
+      <c r="A84" s="1">
         <v>301260</v>
       </c>
       <c r="B84" t="s">
@@ -3307,8 +3941,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+    <row r="85" spans="1:8">
+      <c r="A85" s="1">
         <v>301262</v>
       </c>
       <c r="B85" t="s">
@@ -3333,8 +3967,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+    <row r="86" spans="1:8">
+      <c r="A86" s="1">
         <v>301269</v>
       </c>
       <c r="B86" t="s">
@@ -3359,8 +3993,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+    <row r="87" spans="1:8">
+      <c r="A87" s="1">
         <v>301270</v>
       </c>
       <c r="B87" t="s">
@@ -3385,8 +4019,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="88" spans="1:8">
+      <c r="A88" s="1">
         <v>301287</v>
       </c>
       <c r="B88" t="s">
@@ -3411,8 +4045,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
         <v>301302</v>
       </c>
       <c r="B89" t="s">
@@ -3437,8 +4071,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+    <row r="90" spans="1:8">
+      <c r="A90" s="1">
         <v>301311</v>
       </c>
       <c r="B90" t="s">
@@ -3463,8 +4097,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
         <v>301313</v>
       </c>
       <c r="B91" t="s">
@@ -3489,8 +4123,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
         <v>301315</v>
       </c>
       <c r="B92" t="s">
@@ -3515,8 +4149,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
         <v>301316</v>
       </c>
       <c r="B93" t="s">
@@ -3541,8 +4175,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
         <v>301318</v>
       </c>
       <c r="B94" t="s">
@@ -3567,8 +4201,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
         <v>301320</v>
       </c>
       <c r="B95" t="s">
@@ -3593,8 +4227,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
         <v>301330</v>
       </c>
       <c r="B96" t="s">
@@ -3619,8 +4253,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+    <row r="97" spans="1:8">
+      <c r="A97" s="1">
         <v>301336</v>
       </c>
       <c r="B97" t="s">
@@ -3645,8 +4279,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+    <row r="98" spans="1:8">
+      <c r="A98" s="1">
         <v>301360</v>
       </c>
       <c r="B98" t="s">
@@ -3671,8 +4305,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+    <row r="99" spans="1:8">
+      <c r="A99" s="1">
         <v>301365</v>
       </c>
       <c r="B99" t="s">
@@ -3697,8 +4331,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
         <v>301366</v>
       </c>
       <c r="B100" t="s">
@@ -3723,8 +4357,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
         <v>301378</v>
       </c>
       <c r="B101" t="s">
@@ -3749,8 +4383,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
         <v>301379</v>
       </c>
       <c r="B102" t="s">
@@ -3775,8 +4409,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
         <v>301380</v>
       </c>
       <c r="B103" t="s">
@@ -3801,8 +4435,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
         <v>301390</v>
       </c>
       <c r="B104" t="s">
@@ -3827,8 +4461,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
         <v>301391</v>
       </c>
       <c r="B105" t="s">
@@ -3853,8 +4487,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+    <row r="106" spans="1:8">
+      <c r="A106" s="1">
         <v>301396</v>
       </c>
       <c r="B106" t="s">
@@ -3879,8 +4513,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+    <row r="107" spans="1:8">
+      <c r="A107" s="1">
         <v>301428</v>
       </c>
       <c r="B107" t="s">
@@ -3905,8 +4539,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+    <row r="108" spans="1:8">
+      <c r="A108" s="1">
         <v>301503</v>
       </c>
       <c r="B108" t="s">
@@ -3931,8 +4565,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+    <row r="109" spans="1:8">
+      <c r="A109" s="1">
         <v>301536</v>
       </c>
       <c r="B109" t="s">
@@ -3957,8 +4591,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+    <row r="110" spans="1:8">
+      <c r="A110" s="1">
         <v>301551</v>
       </c>
       <c r="B110" t="s">
@@ -3983,8 +4617,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+    <row r="111" spans="1:8">
+      <c r="A111" s="1">
         <v>301568</v>
       </c>
       <c r="B111" t="s">
@@ -4009,8 +4643,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+    <row r="112" spans="1:8">
+      <c r="A112" s="1">
         <v>301602</v>
       </c>
       <c r="B112" t="s">
@@ -4035,8 +4669,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+    <row r="113" spans="1:8">
+      <c r="A113" s="1">
         <v>430198</v>
       </c>
       <c r="B113" t="s">
@@ -4061,8 +4695,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+    <row r="114" spans="1:8">
+      <c r="A114" s="1">
         <v>600100</v>
       </c>
       <c r="B114" t="s">
@@ -4087,8 +4721,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+    <row r="115" spans="1:8">
+      <c r="A115" s="1">
         <v>600345</v>
       </c>
       <c r="B115" t="s">
@@ -4113,8 +4747,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+    <row r="116" spans="1:8">
+      <c r="A116" s="1">
         <v>300759</v>
       </c>
       <c r="B116" t="s">
@@ -4139,8 +4773,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+    <row r="117" spans="1:8">
+      <c r="A117" s="1">
         <v>300768</v>
       </c>
       <c r="B117" t="s">
@@ -4165,8 +4799,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+    <row r="118" spans="1:8">
+      <c r="A118" s="1">
         <v>300770</v>
       </c>
       <c r="B118" t="s">
@@ -4191,8 +4825,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+    <row r="119" spans="1:8">
+      <c r="A119" s="1">
         <v>300810</v>
       </c>
       <c r="B119" t="s">
@@ -4217,8 +4851,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+    <row r="120" spans="1:8">
+      <c r="A120" s="1">
         <v>301208</v>
       </c>
       <c r="B120" t="s">
@@ -4243,8 +4877,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+    <row r="121" spans="1:8">
+      <c r="A121" s="1">
         <v>430564</v>
       </c>
       <c r="B121" t="s">
@@ -4269,8 +4903,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+    <row r="122" spans="1:8">
+      <c r="A122" s="1">
         <v>600006</v>
       </c>
       <c r="B122" t="s">
@@ -4295,8 +4929,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+    <row r="123" spans="1:8">
+      <c r="A123" s="1">
         <v>600022</v>
       </c>
       <c r="B123" t="s">
@@ -4321,8 +4955,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+    <row r="124" spans="1:8">
+      <c r="A124" s="1">
         <v>600129</v>
       </c>
       <c r="B124" t="s">
@@ -4347,8 +4981,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+    <row r="125" spans="1:8">
+      <c r="A125" s="1">
         <v>600170</v>
       </c>
       <c r="B125" t="s">
@@ -4373,8 +5007,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+    <row r="126" spans="1:8">
+      <c r="A126" s="1">
         <v>600201</v>
       </c>
       <c r="B126" t="s">
@@ -4399,8 +5033,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+    <row r="127" spans="1:8">
+      <c r="A127" s="1">
         <v>600229</v>
       </c>
       <c r="B127" t="s">
@@ -4425,8 +5059,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+    <row r="128" spans="1:8">
+      <c r="A128" s="1">
         <v>600271</v>
       </c>
       <c r="B128" t="s">
@@ -4451,8 +5085,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+    <row r="129" spans="1:8">
+      <c r="A129" s="1">
         <v>600282</v>
       </c>
       <c r="B129" t="s">
@@ -4477,8 +5111,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+    <row r="130" spans="1:8">
+      <c r="A130" s="1">
         <v>600288</v>
       </c>
       <c r="B130" t="s">
@@ -4503,8 +5137,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+    <row r="131" spans="1:8">
+      <c r="A131" s="1">
         <v>600289</v>
       </c>
       <c r="B131" t="s">
@@ -4529,8 +5163,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+    <row r="132" spans="1:8">
+      <c r="A132" s="1">
         <v>600355</v>
       </c>
       <c r="B132" t="s">
@@ -4555,8 +5189,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+    <row r="133" spans="1:8">
+      <c r="A133" s="1">
         <v>600410</v>
       </c>
       <c r="B133" t="s">
@@ -4581,8 +5215,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+    <row r="134" spans="1:8">
+      <c r="A134" s="1">
         <v>600446</v>
       </c>
       <c r="B134" t="s">
@@ -4607,8 +5241,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+    <row r="135" spans="1:8">
+      <c r="A135" s="1">
         <v>600449</v>
       </c>
       <c r="B135" t="s">
@@ -4633,8 +5267,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+    <row r="136" spans="1:8">
+      <c r="A136" s="1">
         <v>600476</v>
       </c>
       <c r="B136" t="s">
@@ -4659,8 +5293,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+    <row r="137" spans="1:8">
+      <c r="A137" s="1">
         <v>600556</v>
       </c>
       <c r="B137" t="s">
@@ -4685,8 +5319,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+    <row r="138" spans="1:8">
+      <c r="A138" s="1">
         <v>600560</v>
       </c>
       <c r="B138" t="s">
@@ -4711,8 +5345,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+    <row r="139" spans="1:8">
+      <c r="A139" s="1">
         <v>600570</v>
       </c>
       <c r="B139" t="s">
@@ -4737,8 +5371,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+    <row r="140" spans="1:8">
+      <c r="A140" s="1">
         <v>831832</v>
       </c>
       <c r="B140" t="s">
@@ -4763,8 +5397,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+    <row r="141" spans="1:8">
+      <c r="A141" s="1">
         <v>834021</v>
       </c>
       <c r="B141" t="s">
@@ -4789,8 +5423,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+    <row r="142" spans="1:8">
+      <c r="A142" s="1">
         <v>835184</v>
       </c>
       <c r="B142" t="s">
@@ -4815,8 +5449,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+    <row r="143" spans="1:8">
+      <c r="A143" s="1">
         <v>835207</v>
       </c>
       <c r="B143" t="s">
@@ -4841,8 +5475,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+    <row r="144" spans="1:8">
+      <c r="A144" s="1">
         <v>835305</v>
       </c>
       <c r="B144" t="s">
@@ -4867,8 +5501,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+    <row r="145" spans="1:8">
+      <c r="A145" s="1">
         <v>835508</v>
       </c>
       <c r="B145" t="s">
@@ -4893,8 +5527,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+    <row r="146" spans="1:8">
+      <c r="A146" s="1">
         <v>835579</v>
       </c>
       <c r="B146" t="s">
@@ -4919,8 +5553,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+    <row r="147" spans="1:8">
+      <c r="A147" s="1">
         <v>836414</v>
       </c>
       <c r="B147" t="s">
@@ -4945,8 +5579,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+    <row r="148" spans="1:8">
+      <c r="A148" s="1">
         <v>837092</v>
       </c>
       <c r="B148" t="s">
@@ -4971,8 +5605,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+    <row r="149" spans="1:8">
+      <c r="A149" s="1">
         <v>837748</v>
       </c>
       <c r="B149" t="s">
@@ -4997,8 +5631,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+    <row r="150" spans="1:8">
+      <c r="A150" s="1">
         <v>839493</v>
       </c>
       <c r="B150" t="s">
@@ -5023,8 +5657,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+    <row r="151" spans="1:8">
+      <c r="A151" s="1">
         <v>839680</v>
       </c>
       <c r="B151" t="s">
@@ -5049,8 +5683,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+    <row r="152" spans="1:8">
+      <c r="A152" s="1">
         <v>872190</v>
       </c>
       <c r="B152" t="s">
@@ -5075,8 +5709,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+    <row r="153" spans="1:8">
+      <c r="A153" s="1">
         <v>872953</v>
       </c>
       <c r="B153" t="s">
@@ -5101,8 +5735,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+    <row r="154" spans="1:8">
+      <c r="A154" s="1">
         <v>873167</v>
       </c>
       <c r="B154" t="s">
@@ -5127,8 +5761,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+    <row r="155" spans="1:8">
+      <c r="A155" s="1">
         <v>920799</v>
       </c>
       <c r="B155" t="s">
@@ -5153,8 +5787,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+    <row r="156" spans="1:8">
+      <c r="A156" s="1">
         <v>63</v>
       </c>
       <c r="B156" t="s">
@@ -5179,8 +5813,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+    <row r="157" spans="1:8">
+      <c r="A157" s="1">
         <v>157</v>
       </c>
       <c r="B157" t="s">
@@ -5205,8 +5839,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+    <row r="158" spans="1:8">
+      <c r="A158" s="1">
         <v>810</v>
       </c>
       <c r="B158" t="s">
@@ -5231,8 +5865,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
+    <row r="159" spans="1:8">
+      <c r="A159" s="1">
         <v>300033</v>
       </c>
       <c r="B159" t="s">
@@ -5257,8 +5891,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+    <row r="160" spans="1:8">
+      <c r="A160" s="1">
         <v>300059</v>
       </c>
       <c r="B160" t="s">
@@ -5283,8 +5917,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
+    <row r="161" spans="1:8">
+      <c r="A161" s="1">
         <v>688018</v>
       </c>
       <c r="B161" t="s">
@@ -5309,8 +5943,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+    <row r="162" spans="1:8">
+      <c r="A162" s="1">
         <v>688041</v>
       </c>
       <c r="B162" t="s">
@@ -5335,8 +5969,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+    <row r="163" spans="1:8">
+      <c r="A163" s="1">
         <v>688111</v>
       </c>
       <c r="B163" t="s">
@@ -5361,8 +5995,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+    <row r="164" spans="1:8">
+      <c r="A164" s="1">
         <v>688570</v>
       </c>
       <c r="B164" t="s">
@@ -5387,8 +6021,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
+    <row r="165" spans="1:8">
+      <c r="A165" s="1">
         <v>688589</v>
       </c>
       <c r="B165" t="s">
@@ -5413,8 +6047,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+    <row r="166" spans="1:8">
+      <c r="A166" s="1">
         <v>66</v>
       </c>
       <c r="B166" t="s">
@@ -5439,8 +6073,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
+    <row r="167" spans="1:8">
+      <c r="A167" s="1">
         <v>300413</v>
       </c>
       <c r="B167" t="s">
@@ -5465,8 +6099,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+    <row r="168" spans="1:8">
+      <c r="A168" s="1">
         <v>300418</v>
       </c>
       <c r="B168" t="s">
@@ -5491,8 +6125,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+    <row r="169" spans="1:8">
+      <c r="A169" s="1">
         <v>301236</v>
       </c>
       <c r="B169" t="s">
@@ -5517,8 +6151,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+    <row r="170" spans="1:8">
+      <c r="A170" s="1">
         <v>301269</v>
       </c>
       <c r="B170" t="s">
@@ -5543,8 +6177,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
+    <row r="171" spans="1:8">
+      <c r="A171" s="1">
         <v>600839</v>
       </c>
       <c r="B171" t="s">
@@ -5569,8 +6203,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+    <row r="172" spans="1:8">
+      <c r="A172" s="1">
         <v>688067</v>
       </c>
       <c r="B172" t="s">
@@ -5595,8 +6229,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
+    <row r="173" spans="1:8">
+      <c r="A173" s="1">
         <v>688244</v>
       </c>
       <c r="B173" t="s">
@@ -5621,8 +6255,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+    <row r="174" spans="1:8">
+      <c r="A174" s="1">
         <v>688590</v>
       </c>
       <c r="B174" t="s">
@@ -5647,8 +6281,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
+    <row r="175" spans="1:8">
+      <c r="A175" s="1">
         <v>688609</v>
       </c>
       <c r="B175" t="s">
@@ -5673,8 +6307,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
+    <row r="176" spans="1:8">
+      <c r="A176" s="1">
         <v>625</v>
       </c>
       <c r="B176" t="s">
@@ -5699,8 +6333,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+    <row r="177" spans="1:8">
+      <c r="A177" s="1">
         <v>977</v>
       </c>
       <c r="B177" t="s">
@@ -5725,8 +6359,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+    <row r="178" spans="1:8">
+      <c r="A178" s="1">
         <v>601633</v>
       </c>
       <c r="B178" t="s">
@@ -5751,8 +6385,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
+    <row r="179" spans="1:8">
+      <c r="A179" s="1">
         <v>688008</v>
       </c>
       <c r="B179" t="s">
@@ -5777,8 +6411,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+    <row r="180" spans="1:8">
+      <c r="A180" s="1">
         <v>688049</v>
       </c>
       <c r="B180" t="s">
@@ -5803,8 +6437,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
+    <row r="181" spans="1:8">
+      <c r="A181" s="1">
         <v>688088</v>
       </c>
       <c r="B181" t="s">
@@ -5829,8 +6463,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+    <row r="182" spans="1:8">
+      <c r="A182" s="1">
         <v>688099</v>
       </c>
       <c r="B182" t="s">
@@ -5855,8 +6489,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
+    <row r="183" spans="1:8">
+      <c r="A183" s="1">
         <v>688220</v>
       </c>
       <c r="B183" t="s">
@@ -5881,8 +6515,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+    <row r="184" spans="1:8">
+      <c r="A184" s="1">
         <v>688228</v>
       </c>
       <c r="B184" t="s">
@@ -5907,8 +6541,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
+    <row r="185" spans="1:8">
+      <c r="A185" s="1">
         <v>688579</v>
       </c>
       <c r="B185" t="s">
@@ -5933,8 +6567,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+    <row r="186" spans="1:8">
+      <c r="A186" s="1">
         <v>2236</v>
       </c>
       <c r="B186" t="s">
@@ -5959,8 +6593,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
+    <row r="187" spans="1:8">
+      <c r="A187" s="1">
         <v>2352</v>
       </c>
       <c r="B187" t="s">
@@ -5985,8 +6619,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+    <row r="188" spans="1:8">
+      <c r="A188" s="1">
         <v>2600</v>
       </c>
       <c r="B188" t="s">
@@ -6011,8 +6645,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
+    <row r="189" spans="1:8">
+      <c r="A189" s="1">
         <v>300347</v>
       </c>
       <c r="B189" t="s">
@@ -6037,8 +6671,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+    <row r="190" spans="1:8">
+      <c r="A190" s="1">
         <v>300454</v>
       </c>
       <c r="B190" t="s">
@@ -6063,8 +6697,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
+    <row r="191" spans="1:8">
+      <c r="A191" s="1">
         <v>300759</v>
       </c>
       <c r="B191" t="s">
@@ -6089,8 +6723,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+    <row r="192" spans="1:8">
+      <c r="A192" s="1">
         <v>600570</v>
       </c>
       <c r="B192" t="s">
@@ -6115,8 +6749,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+    <row r="193" spans="1:8">
+      <c r="A193" s="1">
         <v>600895</v>
       </c>
       <c r="B193" t="s">
@@ -6141,8 +6775,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+    <row r="194" spans="1:8">
+      <c r="A194" s="1">
         <v>688557</v>
       </c>
       <c r="B194" t="s">
@@ -6167,8 +6801,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
+    <row r="195" spans="1:8">
+      <c r="A195" s="1">
         <v>688595</v>
       </c>
       <c r="B195" t="s">
@@ -6193,8 +6827,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
+    <row r="196" spans="1:8">
+      <c r="A196" s="1">
         <v>725</v>
       </c>
       <c r="B196" t="s">
@@ -6219,8 +6853,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
+    <row r="197" spans="1:8">
+      <c r="A197" s="1">
         <v>2049</v>
       </c>
       <c r="B197" t="s">
@@ -6245,8 +6879,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+    <row r="198" spans="1:8">
+      <c r="A198" s="1">
         <v>2230</v>
       </c>
       <c r="B198" t="s">
@@ -6271,8 +6905,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
+    <row r="199" spans="1:8">
+      <c r="A199" s="1">
         <v>2261</v>
       </c>
       <c r="B199" t="s">
@@ -6297,8 +6931,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+    <row r="200" spans="1:8">
+      <c r="A200" s="1">
         <v>300339</v>
       </c>
       <c r="B200" t="s">
@@ -6323,8 +6957,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+    <row r="201" spans="1:8">
+      <c r="A201" s="1">
         <v>301390</v>
       </c>
       <c r="B201" t="s">
@@ -6349,8 +6983,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+    <row r="202" spans="1:8">
+      <c r="A202" s="1">
         <v>603893</v>
       </c>
       <c r="B202" t="s">
@@ -6375,8 +7009,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
+    <row r="203" spans="1:8">
+      <c r="A203" s="1">
         <v>688058</v>
       </c>
       <c r="B203" t="s">
@@ -6401,8 +7035,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
+    <row r="204" spans="1:8">
+      <c r="A204" s="1">
         <v>688141</v>
       </c>
       <c r="B204" t="s">
@@ -6427,8 +7061,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
+    <row r="205" spans="1:8">
+      <c r="A205" s="1">
         <v>689009</v>
       </c>
       <c r="B205" t="s">
@@ -6453,8 +7087,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+    <row r="206" spans="1:8">
+      <c r="A206" s="1">
         <v>425</v>
       </c>
       <c r="B206" t="s">
@@ -6479,8 +7113,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
+    <row r="207" spans="1:8">
+      <c r="A207" s="1">
         <v>938</v>
       </c>
       <c r="B207" t="s">
@@ -6505,8 +7139,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
+    <row r="208" spans="1:8">
+      <c r="A208" s="1">
         <v>300661</v>
       </c>
       <c r="B208" t="s">
@@ -6531,8 +7165,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
+    <row r="209" spans="1:8">
+      <c r="A209" s="1">
         <v>300866</v>
       </c>
       <c r="B209" t="s">
@@ -6557,8 +7191,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+    <row r="210" spans="1:8">
+      <c r="A210" s="1">
         <v>600100</v>
       </c>
       <c r="B210" t="s">
@@ -6583,8 +7217,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
+    <row r="211" spans="1:8">
+      <c r="A211" s="1">
         <v>601138</v>
       </c>
       <c r="B211" t="s">
@@ -6609,8 +7243,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
+    <row r="212" spans="1:8">
+      <c r="A212" s="1">
         <v>688023</v>
       </c>
       <c r="B212" t="s">
@@ -6635,8 +7269,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
+    <row r="213" spans="1:8">
+      <c r="A213" s="1">
         <v>688051</v>
       </c>
       <c r="B213" t="s">
@@ -6661,8 +7295,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
+    <row r="214" spans="1:8">
+      <c r="A214" s="1">
         <v>688095</v>
       </c>
       <c r="B214" t="s">
@@ -6687,8 +7321,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="3">
+    <row r="215" spans="1:8">
+      <c r="A215" s="1">
         <v>688135</v>
       </c>
       <c r="B215" t="s">
@@ -6713,8 +7347,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="3">
+    <row r="216" spans="1:8">
+      <c r="A216" s="1">
         <v>688225</v>
       </c>
       <c r="B216" t="s">
@@ -6739,8 +7373,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="3">
+    <row r="217" spans="1:8">
+      <c r="A217" s="1">
         <v>688262</v>
       </c>
       <c r="B217" t="s">
@@ -6765,8 +7399,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+    <row r="218" spans="1:8">
+      <c r="A218" s="1">
         <v>688287</v>
       </c>
       <c r="B218" t="s">
@@ -6791,8 +7425,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="3">
+    <row r="219" spans="1:8">
+      <c r="A219" s="1">
         <v>688288</v>
       </c>
       <c r="B219" t="s">
@@ -6817,8 +7451,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="3">
+    <row r="220" spans="1:8">
+      <c r="A220" s="1">
         <v>688561</v>
       </c>
       <c r="B220" t="s">
@@ -6843,8 +7477,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="3">
+    <row r="221" spans="1:8">
+      <c r="A221" s="1">
         <v>2625</v>
       </c>
       <c r="B221" t="s">
@@ -6869,8 +7503,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
+    <row r="222" spans="1:8">
+      <c r="A222" s="1">
         <v>600745</v>
       </c>
       <c r="B222" t="s">
@@ -6895,8 +7529,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="3">
+    <row r="223" spans="1:8">
+      <c r="A223" s="1">
         <v>601360</v>
       </c>
       <c r="B223" t="s">
@@ -6921,8 +7555,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
+    <row r="224" spans="1:8">
+      <c r="A224" s="1">
         <v>603986</v>
       </c>
       <c r="B224" t="s">
@@ -6947,8 +7581,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
+    <row r="225" spans="1:8">
+      <c r="A225" s="1">
         <v>688031</v>
       </c>
       <c r="B225" t="s">
@@ -6973,8 +7607,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+    <row r="226" spans="1:8">
+      <c r="A226" s="1">
         <v>688038</v>
       </c>
       <c r="B226" t="s">
@@ -6999,8 +7633,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
+    <row r="227" spans="1:8">
+      <c r="A227" s="1">
         <v>688222</v>
       </c>
       <c r="B227" t="s">
@@ -7025,8 +7659,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
+    <row r="228" spans="1:8">
+      <c r="A228" s="1">
         <v>688229</v>
       </c>
       <c r="B228" t="s">
@@ -7051,8 +7685,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
+    <row r="229" spans="1:8">
+      <c r="A229" s="1">
         <v>688286</v>
       </c>
       <c r="B229" t="s">
@@ -7077,8 +7711,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
+    <row r="230" spans="1:8">
+      <c r="A230" s="1">
         <v>688521</v>
       </c>
       <c r="B230" t="s">
@@ -7103,8 +7737,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
+    <row r="231" spans="1:8">
+      <c r="A231" s="1">
         <v>963</v>
       </c>
       <c r="B231" t="s">
@@ -7129,8 +7763,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
+    <row r="232" spans="1:8">
+      <c r="A232" s="1">
         <v>2415</v>
       </c>
       <c r="B232" t="s">
@@ -7155,8 +7789,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
+    <row r="233" spans="1:8">
+      <c r="A233" s="1">
         <v>688039</v>
       </c>
       <c r="B233" t="s">
@@ -7181,8 +7815,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
+    <row r="234" spans="1:8">
+      <c r="A234" s="1">
         <v>688109</v>
       </c>
       <c r="B234" t="s">
@@ -7207,8 +7841,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+    <row r="235" spans="1:8">
+      <c r="A235" s="1">
         <v>688155</v>
       </c>
       <c r="B235" t="s">
@@ -7233,8 +7867,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
+    <row r="236" spans="1:8">
+      <c r="A236" s="1">
         <v>688158</v>
       </c>
       <c r="B236" t="s">
@@ -7259,8 +7893,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="3">
+    <row r="237" spans="1:8">
+      <c r="A237" s="1">
         <v>688256</v>
       </c>
       <c r="B237" t="s">
@@ -7285,8 +7919,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
+    <row r="238" spans="1:8">
+      <c r="A238" s="1">
         <v>688588</v>
       </c>
       <c r="B238" t="s">
@@ -7311,8 +7945,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="3">
+    <row r="239" spans="1:8">
+      <c r="A239" s="1">
         <v>688615</v>
       </c>
       <c r="B239" t="s">
@@ -7338,7 +7972,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>